--- a/biology/Botanique/Côtes-du-Roussillon/Côtes-du-Roussillon.xlsx
+++ b/biology/Botanique/Côtes-du-Roussillon/Côtes-du-Roussillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-Roussillon</t>
+          <t>Côtes-du-Roussillon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Côtes du Roussillon[1] est un vin d'appellation d'origine contrôlée produit autour de Perpignan dans les Pyrénées-Orientales, et dans toute la plaine du Roussillon.
+Le Côtes du Roussillon est un vin d'appellation d'origine contrôlée produit autour de Perpignan dans les Pyrénées-Orientales, et dans toute la plaine du Roussillon.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-Roussillon</t>
+          <t>Côtes-du-Roussillon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vendanges 1906 avaient été désastreuses dans tout le Roussillon. Ce qui n'empêchaient pas la chute des cours du vin.  Des familles vigneronnes se heurtaient à des difficultés financières telles qu'elles ne pouvaient plus payer l'impôt. Informé, le gouvernement donna ordre de faire intervenir les huissiers. Le village de Baixas fut le premier à se révolter au début de l'année 1907[4].
-Le 18 février, il reçut le soutien de Marcelin Albert, qui envoya un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations s'étaient multipliés dans les villes et villages, préfectures et sous-préfectures  accueillirent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves[5],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges 1906 avaient été désastreuses dans tout le Roussillon. Ce qui n'empêchaient pas la chute des cours du vin.  Des familles vigneronnes se heurtaient à des difficultés financières telles qu'elles ne pouvaient plus payer l'impôt. Informé, le gouvernement donna ordre de faire intervenir les huissiers. Le village de Baixas fut le premier à se révolter au début de l'année 1907.
+Le 18 février, il reçut le soutien de Marcelin Albert, qui envoya un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations s'étaient multipliés dans les villes et villages, préfectures et sous-préfectures  accueillirent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves,.
 			Regroupement des manifestants aux Platanes
 			À Perpignan, les commerçants aux côtés des viticulteurs
 			Les manifestants devant le Castillet
-Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendues, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures[6]. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit[5].
+Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendues, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-Roussillon</t>
+          <t>Côtes-du-Roussillon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Communes productrices</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amélie-les-Bains-Palalda, Ansignan, Arboussols, Argelès-sur-Mer, Bages, Baho, Baixas, Banyuls-dels-Aspres, Bélesta, Bouleternère, Brouilla, Cabestany, Caixas, Calce, Camélas, Canet, Canohès, Caramany, Cases-de-Pène, Cassagnes, Castelnou, Caudiès-de-Fenouillèdes, Céret, Claira, Corbère, Corbère-les-Cabanes, Corneilla-la-Rivière, Corneilla-del-Vercol, Elne, Espira-de-l'Agly, Espira-de-Conflent, Estagel, Estoher, Felluns, Finestret, Fosse, Fourques, Ille-sur-Têt, Joch, Lansac, Laroque-des-Albères, Latour-Bas-Elne, Latour-de-France, Les Cluses, Lesquerde, Le Boulou, Le Soler, Le Vivier, Llauro, Llupia, Marquixanes, Maureillas, Maury, Millas, Montalba-le-Château, Montauriol, Montescot, Montesquieu, Montner, Néfiach, Oms, Opoul, Ortaffa, Palau-del-Vidre, Passa, Perpignan, Peyrestortes, Pézilla-la-Rivière, Pézilla-de-Conflent, Pia, Planèzes, Pollestres, Ponteilla, Prats-de-Sournia, Prugnanes, Rasiguères, Reynès, Rigarda, Riunoguès, Rivesaltes, Rodès, Saint-André, Saint-Arnac, Sainte-Colombe, Saint-Cyprien, Saint-Estève, Saint-Féliu-d'Amont, Saint-Féliu-d'Avall, Saint-Génis-des-Fontaines, Saint-Hippolyte, Saint-Jean-Lasseille, Saint-Jean-Pla-de-Corts, Saint-Martin-de-Fenouillet, Saint-Michel-de-Llotes, Saint-Nazaire, Saint-Paul-de-Fenouillet, Saleilles, Salses, Sorède, Sournia, Taillet, Tarerach, Tautavel, Terrats, Thuir, Tordères, Toulouges, Tresserre, Trévillach, Trilla, Trouillas, Villelongue-dels-Monts, Villemolaque, Villeneuve-de-la-Raho, Villeneuve-la-Rivière, Vinça, Vingrau et Vivès.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-Roussillon</t>
+          <t>Côtes-du-Roussillon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sols de ce terroir sont constitués de schistes, de terrasses de galets et d'arènes granitiques, qui produisent des vins très aromatiques, qui peuvent être rouges, rosés ou blancs, avec comme cépages : 
 grenache, marsanne, roussanne, macabeu et tourbat pour les blancs.
